--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.02219</v>
       </c>
       <c r="O2">
-        <v>0.03674254717418517</v>
+        <v>0.03042272367694056</v>
       </c>
       <c r="P2">
-        <v>0.05411957523816028</v>
+        <v>0.04495032978430324</v>
       </c>
       <c r="Q2">
-        <v>1.442936100771667</v>
+        <v>1.342453634141667</v>
       </c>
       <c r="R2">
-        <v>8.65761660463</v>
+        <v>8.054721804850001</v>
       </c>
       <c r="S2">
-        <v>0.009702257299684923</v>
+        <v>0.006813127800061105</v>
       </c>
       <c r="T2">
-        <v>0.01072815729646131</v>
+        <v>0.007436353697023802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.193914</v>
+        <v>0.235733</v>
       </c>
       <c r="N3">
-        <v>0.387828</v>
+        <v>0.471466</v>
       </c>
       <c r="O3">
-        <v>0.9632574528258149</v>
+        <v>0.9695772763230595</v>
       </c>
       <c r="P3">
-        <v>0.9458804247618398</v>
+        <v>0.9550496702156968</v>
       </c>
       <c r="Q3">
-        <v>37.828595454489</v>
+        <v>42.78422116319751</v>
       </c>
       <c r="R3">
-        <v>151.314381817956</v>
+        <v>171.13688465279</v>
       </c>
       <c r="S3">
-        <v>0.2543582949992477</v>
+        <v>0.217135519020974</v>
       </c>
       <c r="T3">
-        <v>0.1875024690388462</v>
+        <v>0.1579985548499785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>187.223767</v>
       </c>
       <c r="I4">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J4">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,10 +691,10 @@
         <v>0.02219</v>
       </c>
       <c r="O4">
-        <v>0.03674254717418517</v>
+        <v>0.03042272367694056</v>
       </c>
       <c r="P4">
-        <v>0.05411957523816028</v>
+        <v>0.04495032978430324</v>
       </c>
       <c r="Q4">
         <v>0.4616105988588889</v>
@@ -703,10 +703,10 @@
         <v>4.15449538973</v>
       </c>
       <c r="S4">
-        <v>0.003103855257343303</v>
+        <v>0.002342734172639934</v>
       </c>
       <c r="T4">
-        <v>0.005148077359375234</v>
+        <v>0.003835551108926518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>187.223767</v>
       </c>
       <c r="I5">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J5">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.193914</v>
+        <v>0.235733</v>
       </c>
       <c r="N5">
-        <v>0.387828</v>
+        <v>0.471466</v>
       </c>
       <c r="O5">
-        <v>0.9632574528258149</v>
+        <v>0.9695772763230595</v>
       </c>
       <c r="P5">
-        <v>0.9458804247618398</v>
+        <v>0.9550496702156968</v>
       </c>
       <c r="Q5">
-        <v>12.101769851346</v>
+        <v>14.71160675540367</v>
       </c>
       <c r="R5">
-        <v>72.61061910807601</v>
+        <v>88.269640532422</v>
       </c>
       <c r="S5">
-        <v>0.08137192271822478</v>
+        <v>0.07466332871369036</v>
       </c>
       <c r="T5">
-        <v>0.08997604984820992</v>
+        <v>0.0814931022587269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H6">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I6">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J6">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,22 +815,22 @@
         <v>0.02219</v>
       </c>
       <c r="O6">
-        <v>0.03674254717418517</v>
+        <v>0.03042272367694056</v>
       </c>
       <c r="P6">
-        <v>0.05411957523816028</v>
+        <v>0.04495032978430324</v>
       </c>
       <c r="Q6">
-        <v>1.056703416828889</v>
+        <v>1.272212107561111</v>
       </c>
       <c r="R6">
-        <v>9.51033075146</v>
+        <v>11.44990896805</v>
       </c>
       <c r="S6">
-        <v>0.007105240789281806</v>
+        <v>0.006456642864348074</v>
       </c>
       <c r="T6">
-        <v>0.01178480509156208</v>
+        <v>0.01057088934268044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H7">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I7">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J7">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.193914</v>
+        <v>0.235733</v>
       </c>
       <c r="N7">
-        <v>0.387828</v>
+        <v>0.471466</v>
       </c>
       <c r="O7">
-        <v>0.9632574528258149</v>
+        <v>0.9695772763230595</v>
       </c>
       <c r="P7">
-        <v>0.9458804247618398</v>
+        <v>0.9550496702156968</v>
       </c>
       <c r="Q7">
-        <v>27.702963457092</v>
+        <v>40.54561199887833</v>
       </c>
       <c r="R7">
-        <v>166.217780742552</v>
+        <v>243.27367199327</v>
       </c>
       <c r="S7">
-        <v>0.1862738615249381</v>
+        <v>0.2057742846788686</v>
       </c>
       <c r="T7">
-        <v>0.2059701392091184</v>
+        <v>0.2245973373067226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H8">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I8">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J8">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,22 +939,22 @@
         <v>0.02219</v>
       </c>
       <c r="O8">
-        <v>0.03674254717418517</v>
+        <v>0.03042272367694056</v>
       </c>
       <c r="P8">
-        <v>0.05411957523816028</v>
+        <v>0.04495032978430324</v>
       </c>
       <c r="Q8">
-        <v>0.3921499235850001</v>
+        <v>0.411571210715</v>
       </c>
       <c r="R8">
-        <v>2.35289954151</v>
+        <v>2.469427264290001</v>
       </c>
       <c r="S8">
-        <v>0.002636803845048106</v>
+        <v>0.002088777732141223</v>
       </c>
       <c r="T8">
-        <v>0.002915614947720333</v>
+        <v>0.002279847151924857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H9">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I9">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J9">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.193914</v>
+        <v>0.235733</v>
       </c>
       <c r="N9">
-        <v>0.387828</v>
+        <v>0.471466</v>
       </c>
       <c r="O9">
-        <v>0.9632574528258149</v>
+        <v>0.9695772763230595</v>
       </c>
       <c r="P9">
-        <v>0.9458804247618398</v>
+        <v>0.9550496702156968</v>
       </c>
       <c r="Q9">
-        <v>10.280760741153</v>
+        <v>13.1168431116015</v>
       </c>
       <c r="R9">
-        <v>41.123042964612</v>
+        <v>52.467372446406</v>
       </c>
       <c r="S9">
-        <v>0.069127514304911</v>
+        <v>0.0665696946098486</v>
       </c>
       <c r="T9">
-        <v>0.05095795916829569</v>
+        <v>0.04843940591840488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H10">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I10">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J10">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,22 +1063,22 @@
         <v>0.02219</v>
       </c>
       <c r="O10">
-        <v>0.03674254717418517</v>
+        <v>0.03042272367694056</v>
       </c>
       <c r="P10">
-        <v>0.05411957523816028</v>
+        <v>0.04495032978430324</v>
       </c>
       <c r="Q10">
-        <v>1.063521092153333</v>
+        <v>1.50438079141</v>
       </c>
       <c r="R10">
-        <v>9.57168982938</v>
+        <v>13.53942712269</v>
       </c>
       <c r="S10">
-        <v>0.007151082625346548</v>
+        <v>0.007634929304941477</v>
       </c>
       <c r="T10">
-        <v>0.01186083870098982</v>
+        <v>0.01249999334288307</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H11">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I11">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J11">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.193914</v>
+        <v>0.235733</v>
       </c>
       <c r="N11">
-        <v>0.387828</v>
+        <v>0.471466</v>
       </c>
       <c r="O11">
-        <v>0.9632574528258149</v>
+        <v>0.9695772763230595</v>
       </c>
       <c r="P11">
-        <v>0.9458804247618398</v>
+        <v>0.9550496702156968</v>
       </c>
       <c r="Q11">
-        <v>27.881698386276</v>
+        <v>47.944866665361</v>
       </c>
       <c r="R11">
-        <v>167.290190317656</v>
+        <v>287.669199992166</v>
       </c>
       <c r="S11">
-        <v>0.1874756696094796</v>
+        <v>0.2433264700101536</v>
       </c>
       <c r="T11">
-        <v>0.2072990244131356</v>
+        <v>0.2655845814058454</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H12">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I12">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J12">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.02219</v>
       </c>
       <c r="O12">
-        <v>0.03674254717418517</v>
+        <v>0.03042272367694056</v>
       </c>
       <c r="P12">
-        <v>0.05411957523816028</v>
+        <v>0.04495032978430324</v>
       </c>
       <c r="Q12">
-        <v>1.047492572194444</v>
+        <v>1.002242502294445</v>
       </c>
       <c r="R12">
-        <v>9.427433149750001</v>
+        <v>9.020182520650001</v>
       </c>
       <c r="S12">
-        <v>0.007043307357480487</v>
+        <v>0.005086511802808748</v>
       </c>
       <c r="T12">
-        <v>0.0116820818420515</v>
+        <v>0.008327695140864552</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H13">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I13">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J13">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.193914</v>
+        <v>0.235733</v>
       </c>
       <c r="N13">
-        <v>0.387828</v>
+        <v>0.471466</v>
       </c>
       <c r="O13">
-        <v>0.9632574528258149</v>
+        <v>0.9695772763230595</v>
       </c>
       <c r="P13">
-        <v>0.9458804247618398</v>
+        <v>0.9550496702156968</v>
       </c>
       <c r="Q13">
-        <v>27.46148823495</v>
+        <v>31.94163566381833</v>
       </c>
       <c r="R13">
-        <v>164.7689294097</v>
+        <v>191.64981398291</v>
       </c>
       <c r="S13">
-        <v>0.1846501896690137</v>
+        <v>0.1621079792895243</v>
       </c>
       <c r="T13">
-        <v>0.2041747830842339</v>
+        <v>0.1769366884760183</v>
       </c>
     </row>
   </sheetData>
